--- a/biology/Biochimie/Caspase_6/Caspase_6.xlsx
+++ b/biology/Biochimie/Caspase_6/Caspase_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La caspase 6 est une protéase à cystéine de la famille des caspases (de l'anglais cysteine-dependent aspartate-directed proteases) qui catalyse le clivage des chaînes polypeptidiques au niveau de séquences ayant un résidu d'aspartate en P1, avec une préférence pour la séquence Val–Glu–His–Asp-|-. Elle est codée chez l'homme par le gène CASP6, situé sur le chromosome 4[2],[3]. Des orthologues de ce gène ont été identifiés chez presque tous les mammifères pour lesquels des données génomiques complètes sont disponibles. Des orthologues spécifiques ont également été relevés chez les oiseaux, les sauriens, les lissamphibiens et les téléostéens. La caspase 6 est exprimé essentiellement dans les neurones, jouant un rôle dans la dégénérescence neuronale.
+La caspase 6 est une protéase à cystéine de la famille des caspases (de l'anglais cysteine-dependent aspartate-directed proteases) qui catalyse le clivage des chaînes polypeptidiques au niveau de séquences ayant un résidu d'aspartate en P1, avec une préférence pour la séquence Val–Glu–His–Asp-|-. Elle est codée chez l'homme par le gène CASP6, situé sur le chromosome 4,. Des orthologues de ce gène ont été identifiés chez presque tous les mammifères pour lesquels des données génomiques complètes sont disponibles. Des orthologues spécifiques ont également été relevés chez les oiseaux, les sauriens, les lissamphibiens et les téléostéens. La caspase 6 est exprimé essentiellement dans les neurones, jouant un rôle dans la dégénérescence neuronale.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activation séquentielle des caspases joue un rôle central dans la réalisation de l'apoptose cellulaire. Ces caspases sont présentes dans la cellule sous la forme de proenzymes qui subissent un clivage protéolytique par d'autres caspases (la caspase 8 et la caspase 9) au niveau de résidus d'aspartate conservés pour produire deux sous-unités, une grande et une petite, qui forment un hétérotétramère constitué de deux hétérodimères. Plus précisément, le précurseur de la caspase 6 est clivé par la caspase 7, la caspase 8 et la caspase 10. Il est également susceptible de donner la caspase 6 active sans l'assistance d'autres caspases[4]. L'épissage alternatif de l'ARN messager issu du gène de la caspase 7 produit deux variantes de transcription qui sont traduits en deux isoformes distinctes.
-La caspase 6 interagit avec la caspase 8[5],[6],[7]. Elle intervient dans la dégénérescence axonale[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activation séquentielle des caspases joue un rôle central dans la réalisation de l'apoptose cellulaire. Ces caspases sont présentes dans la cellule sous la forme de proenzymes qui subissent un clivage protéolytique par d'autres caspases (la caspase 8 et la caspase 9) au niveau de résidus d'aspartate conservés pour produire deux sous-unités, une grande et une petite, qui forment un hétérotétramère constitué de deux hétérodimères. Plus précisément, le précurseur de la caspase 6 est clivé par la caspase 7, la caspase 8 et la caspase 10. Il est également susceptible de donner la caspase 6 active sans l'assistance d'autres caspases. L'épissage alternatif de l'ARN messager issu du gène de la caspase 7 produit deux variantes de transcription qui sont traduits en deux isoformes distinctes.
+La caspase 6 interagit avec la caspase 8. Elle intervient dans la dégénérescence axonale. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Dans les maladies neurologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la maladie d'Alzheimer, la caspase 6 clive la protéine précurseur de l'amyloïde, contribuant à l'apoptose (mort cellulaire) neuronale[9]. Elle intervient également dans le déclin cognitif de la personne âgée[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la maladie d'Alzheimer, la caspase 6 clive la protéine précurseur de l'amyloïde, contribuant à l'apoptose (mort cellulaire) neuronale. Elle intervient également dans le déclin cognitif de la personne âgée.
 </t>
         </is>
       </c>
